--- a/biology/Médecine/Mimics/Mimics.xlsx
+++ b/biology/Médecine/Mimics/Mimics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mimics (Materialise Interactive Medical Image Control System) est un logiciel de traitement d'image 3D ainsi que de conception et de modélisation, développé par Materialise NV[1], une société belge spécialisée dans les logiciels de fabrication additive et des technologies pour les soins médicaux, dentaires et les industries d'imprimeries 3D. Mimics transforme des piles d'images 2D (e.g.: fichiers DICOM) en modèle 3D. Ces modèles 3D peuvent ensuite être utilisés pour une variété d'applications d'ingénierie. Mimics est disponible commercialement à l'intérieur de la suite logiciel Materialise Mimics Innovation Suite, qui contient également 3-matic. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mimics (Materialise Interactive Medical Image Control System) est un logiciel de traitement d'image 3D ainsi que de conception et de modélisation, développé par Materialise NV, une société belge spécialisée dans les logiciels de fabrication additive et des technologies pour les soins médicaux, dentaires et les industries d'imprimeries 3D. Mimics transforme des piles d'images 2D (e.g.: fichiers DICOM) en modèle 3D. Ces modèles 3D peuvent ensuite être utilisés pour une variété d'applications d'ingénierie. Mimics est disponible commercialement à l'intérieur de la suite logiciel Materialise Mimics Innovation Suite, qui contient également 3-matic. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Processus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mimics calcule la surface de modèles 3D à partir de piles de données d'image telles que la Tomodensitométrie (CT), Micro-Tomodensitométrie, Imagerie par Résonance Magnétique (IRM), la Microscopie Confocale, les rayons X et les Ultrasons, grâce à la segmentation d'image. Les fichiers 3D sont représentés dans le format STL.
 Le format d'entrée le plus courant est le format DICOM, mais d'autres formats d'image tels que: TIFF, JPEG, BMP et Raw sont également pris en charge. 
